--- a/Databel_Customer.xlsx
+++ b/Databel_Customer.xlsx
@@ -5,10 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Databel - Customer" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="AgeGroup" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ChurnedCustomers" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="58">
   <si>
     <t xml:space="preserve">Sample Databel Customer Data</t>
   </si>
@@ -140,6 +144,60 @@
   </si>
   <si>
     <t xml:space="preserve">CUST_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Churned Customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Churn Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Churn_Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgeGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Churned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChurnRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChurnedCustomers</t>
   </si>
 </sst>
 </file>
@@ -149,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -200,8 +258,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,13 +294,26 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF3366FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -255,7 +342,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,6 +361,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -348,7 +443,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -393,6 +488,7 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
               <c:txPr>
@@ -406,6 +502,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -426,6 +523,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -444,6 +542,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -484,11 +583,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="79764899"/>
-        <c:axId val="74103149"/>
+        <c:axId val="38342695"/>
+        <c:axId val="76444590"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79764899"/>
+        <c:axId val="38342695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -554,14 +653,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74103149"/>
+        <c:crossAx val="76444590"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74103149"/>
+        <c:axId val="76444590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,7 +710,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -637,7 +736,402 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79764899"/>
+        <c:crossAx val="38342695"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4f81bd"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c0504d"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9bbb59"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Network</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Price</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Service</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="2549841"/>
+        <c:axId val="21890616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2549841"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="[$-409]MM/DD/YYYY" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21890616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="21890616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Customers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2549841"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -691,16 +1185,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>49680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>576360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>624600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -708,8 +1202,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14547960" y="822240"/>
-        <a:ext cx="5399640" cy="2699640"/>
+        <a:off x="15801840" y="1085040"/>
+        <a:ext cx="5398560" cy="2698560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>522720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>412560</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4803120" y="1159920"/>
+        <a:ext cx="5393520" cy="2483280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -729,8 +1258,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -738,7 +1267,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="17.09"/>
@@ -1380,4 +1909,314 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A7:C12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>66.6666666666667</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>66.6666666666667</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>